--- a/wcsa5seleniumproject1/data/ActitimeTestData.xlsx
+++ b/wcsa5seleniumproject1/data/ActitimeTestData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="6015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="Invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="Managercreds" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Username</t>
   </si>
@@ -52,14 +53,37 @@
     <t>ad@min</t>
   </si>
   <si>
-    <t>dsjhsdh</t>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>RETYPE PASSWORD</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Amral</t>
+  </si>
+  <si>
+    <t>jonny@123</t>
+  </si>
+  <si>
+    <t>testEngg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,11 +136,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -124,6 +157,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,14 +442,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" activeCellId="1" sqref="A1 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,13 +478,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,4 +543,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>